--- a/risk parity portfolio/data/stock-bond_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond_stats.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Valyrian\risk parity portfolio\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,10 +42,10 @@
     <t>风险贡献</t>
   </si>
   <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
+    <t>沪深300价值</t>
+  </si>
+  <si>
+    <t>中证500低波</t>
   </si>
   <si>
     <t>恒生指数</t>
@@ -64,16 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,6 +90,13 @@
       <color theme="1"/>
       <name val="楷体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,19 +131,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +225,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,17 +436,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,180 +476,180 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.02158862160766506</v>
+        <v>4.118487109903346E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.01818860921957</v>
+        <v>0.1870451968862199</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.2006881468246343</v>
+        <v>0.2476400071303009</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2196883158452851</v>
+        <v>0.22583615008726871</v>
       </c>
       <c r="F2" s="4">
-        <v>-1.137018148125158</v>
+        <v>6.0999906344893056</v>
       </c>
       <c r="G2" s="3">
-        <v>0.01319412222697457</v>
+        <v>1.3895622052154411E-2</v>
       </c>
       <c r="H2" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0243368339515202</v>
+        <v>7.9340478387646574E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>-0.02497049595537615</v>
+        <v>0.25725591129375891</v>
       </c>
       <c r="D3" s="3">
-        <v>-0.2247990655339211</v>
+        <v>0.25905034647952202</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2189220261655796</v>
+        <v>0.20491720570153529</v>
       </c>
       <c r="F3" s="4">
-        <v>-1.312602662107138</v>
+        <v>6.9764934158820742</v>
       </c>
       <c r="G3" s="3">
-        <v>0.01331971825750375</v>
+        <v>1.441469419637781E-2</v>
       </c>
       <c r="H3" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.04675798618797922</v>
+        <v>9.7421745468302401E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.001732519326677173</v>
+        <v>5.0456085389169347E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1260550516976594</v>
+        <v>0.13854188721857619</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2062165958219855</v>
+        <v>0.1452000038827608</v>
       </c>
       <c r="F4" s="4">
-        <v>-0.695722150478291</v>
+        <v>5.5002447829276901</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0148974647946004</v>
+        <v>1.5157033792332131E-2</v>
       </c>
       <c r="H4" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0.01611880195003934</v>
+        <v>-7.495398190790592E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.01085192843399141</v>
+        <v>3.3718132821095807E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0306102984354486</v>
+        <v>0.11493961556719449</v>
       </c>
       <c r="E5" s="3">
-        <v>0.152389593345969</v>
+        <v>0.14387658362094069</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3183851807065146</v>
+        <v>4.6519678430454627</v>
       </c>
       <c r="G5" s="3">
-        <v>0.02798040242640323</v>
+        <v>2.2786240276669239E-2</v>
       </c>
       <c r="H5" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>0.002325397035118915</v>
+        <v>-1.432873791129774E-3</v>
       </c>
       <c r="C6" s="3">
-        <v>0.0115883102357941</v>
+        <v>-1.568945984652292E-3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.07424030643220902</v>
+        <v>5.3734453007374672E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01774236513150667</v>
+        <v>1.5621092587240671E-2</v>
       </c>
       <c r="F6" s="4">
-        <v>4.947290055950235</v>
+        <v>1.453389400254911</v>
       </c>
       <c r="G6" s="3">
-        <v>0.322809572513839</v>
+        <v>0.31149320431929228</v>
       </c>
       <c r="H6" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>0.001316770460642935</v>
+        <v>-8.0891865457255463E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>0.006306559896843922</v>
+        <v>2.8818410964899228E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06355034625782396</v>
+        <v>1.1301246297074959E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.00775984036327061</v>
+        <v>7.647225088900274E-3</v>
       </c>
       <c r="F7" s="4">
-        <v>9.718250508782598</v>
+        <v>7.6829916753133922</v>
       </c>
       <c r="G7" s="3">
-        <v>0.6077987197806791</v>
+        <v>0.62225320536317419</v>
       </c>
       <c r="H7" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>0.000475494310137714</v>
+        <v>5.3408495377782472E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.002170343504415806</v>
+        <v>2.730380430981727E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>0.03265719661810329</v>
+        <v>5.0383923537822284E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>0.001876142128348556</v>
+        <v>1.9384461354610501E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>21.05796285891305</v>
+        <v>10.993254219699571</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -634,24 +658,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>0.003366979388979008</v>
+        <v>7.1538233845491739E-4</v>
       </c>
       <c r="C9" s="3">
-        <v>0.006490411882632552</v>
+        <v>8.6500091333996387E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>0.0536598544865774</v>
+        <v>1.9751984799294849E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01488065751351218</v>
+        <v>1.1085268434887059E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>4.304899491904733</v>
+        <v>9.9187000575927105</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -661,6 +685,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/risk parity portfolio/data/stock-bond_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond_stats.xlsx
@@ -446,10 +446,10 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -481,22 +481,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>4.118487109903346E-2</v>
+        <v>2.6807573897748679E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1870451968862199</v>
+        <v>0.10067405662000641</v>
       </c>
       <c r="D2" s="3">
-        <v>0.2476400071303009</v>
+        <v>0.232554154419959</v>
       </c>
       <c r="E2" s="3">
-        <v>0.22583615008726871</v>
+        <v>0.23980945108462651</v>
       </c>
       <c r="F2" s="4">
-        <v>6.0999906344893056</v>
+        <v>4.3901863168344333</v>
       </c>
       <c r="G2" s="3">
-        <v>1.3895622052154411E-2</v>
+        <v>1.3693224404120789E-2</v>
       </c>
       <c r="H2" s="3">
         <v>0.125</v>
@@ -507,22 +507,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>7.9340478387646574E-2</v>
+        <v>1.4982621871339591E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.25725591129375891</v>
+        <v>0.19118783433724881</v>
       </c>
       <c r="D3" s="3">
-        <v>0.25905034647952202</v>
+        <v>0.28632398477062432</v>
       </c>
       <c r="E3" s="3">
-        <v>0.20491720570153529</v>
+        <v>0.25643240113520849</v>
       </c>
       <c r="F3" s="4">
-        <v>6.9764934158820742</v>
+        <v>4.9485797563892504</v>
       </c>
       <c r="G3" s="3">
-        <v>1.441469419637781E-2</v>
+        <v>1.361930937512597E-2</v>
       </c>
       <c r="H3" s="3">
         <v>0.125</v>
@@ -533,22 +533,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>9.7421745468302401E-3</v>
+        <v>1.7825944330372989E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0456085389169347E-2</v>
+        <v>2.8299031530070181E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.13854188721857619</v>
+        <v>0.14965260623740481</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1452000038827608</v>
+        <v>0.14880689685920831</v>
       </c>
       <c r="F4" s="4">
-        <v>5.5002447829276901</v>
+        <v>4.6403437939667613</v>
       </c>
       <c r="G4" s="3">
-        <v>1.5157033792332131E-2</v>
+        <v>1.5534604779020701E-2</v>
       </c>
       <c r="H4" s="3">
         <v>0.125</v>
@@ -559,22 +559,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>-7.495398190790592E-3</v>
+        <v>4.7351045209398368E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>3.3718132821095807E-2</v>
+        <v>1.419542500089821E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.11493961556719449</v>
+        <v>0.13617272924762799</v>
       </c>
       <c r="E5" s="3">
-        <v>0.14387658362094069</v>
+        <v>0.1355426702756132</v>
       </c>
       <c r="F5" s="4">
-        <v>4.6519678430454627</v>
+        <v>4.649587959314375</v>
       </c>
       <c r="G5" s="3">
-        <v>2.2786240276669239E-2</v>
+        <v>2.2928298940580499E-2</v>
       </c>
       <c r="H5" s="3">
         <v>0.125</v>
@@ -585,22 +585,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>-1.432873791129774E-3</v>
+        <v>-4.2447518582144911E-4</v>
       </c>
       <c r="C6" s="3">
-        <v>-1.568945984652292E-3</v>
+        <v>-1.70532351021524E-3</v>
       </c>
       <c r="D6" s="3">
-        <v>5.3734453007374672E-3</v>
+        <v>7.3762455620376421E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>1.5621092587240671E-2</v>
+        <v>1.464271000322922E-2</v>
       </c>
       <c r="F6" s="4">
-        <v>1.453389400254911</v>
+        <v>1.7800688190363541</v>
       </c>
       <c r="G6" s="3">
-        <v>0.31149320431929228</v>
+        <v>0.31300408701214211</v>
       </c>
       <c r="H6" s="3">
         <v>0.25</v>
@@ -611,22 +611,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>-8.0891865457255463E-4</v>
+        <v>3.2623669237996639E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>2.8818410964899228E-3</v>
+        <v>-6.068491146216104E-5</v>
       </c>
       <c r="D7" s="3">
-        <v>1.1301246297074959E-2</v>
+        <v>1.297488790680479E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>7.647225088900274E-3</v>
+        <v>7.0648733266842926E-3</v>
       </c>
       <c r="F7" s="4">
-        <v>7.6829916753133922</v>
+        <v>7.5550112967139409</v>
       </c>
       <c r="G7" s="3">
-        <v>0.62225320536317419</v>
+        <v>0.62122047548900994</v>
       </c>
       <c r="H7" s="3">
         <v>0.25</v>
@@ -637,19 +637,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3408495377782472E-4</v>
+        <v>5.1778780509303957E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.730380430981727E-3</v>
+        <v>2.1091294127544291E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>5.0383923537822284E-3</v>
+        <v>6.0820442097941907E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.9384461354610501E-3</v>
+        <v>1.7831637748742209E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>10.993254219699571</v>
+        <v>11.33261425504838</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>7.1538233845491739E-4</v>
+        <v>1.0288491250358689E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>8.6500091333996387E-3</v>
+        <v>4.218401904710456E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>1.9751984799294849E-2</v>
+        <v>2.2225709810200559E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.1085268434887059E-2</v>
+        <v>1.1353894205119411E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>9.9187000575927105</v>
+        <v>8.662131093809359</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stock-bond_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -440,16 +440,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -496,7 +497,7 @@
         <v>4.3901863168344333</v>
       </c>
       <c r="G2" s="3">
-        <v>1.3693224404120789E-2</v>
+        <v>1.36929899129134E-2</v>
       </c>
       <c r="H2" s="3">
         <v>0.125</v>
@@ -522,7 +523,7 @@
         <v>4.9485797563892504</v>
       </c>
       <c r="G3" s="3">
-        <v>1.361930937512597E-2</v>
+        <v>1.3619294750168209E-2</v>
       </c>
       <c r="H3" s="3">
         <v>0.125</v>
@@ -548,7 +549,7 @@
         <v>4.6403437939667613</v>
       </c>
       <c r="G4" s="3">
-        <v>1.5534604779020701E-2</v>
+        <v>1.553472665888337E-2</v>
       </c>
       <c r="H4" s="3">
         <v>0.125</v>
@@ -574,7 +575,7 @@
         <v>4.649587959314375</v>
       </c>
       <c r="G5" s="3">
-        <v>2.2928298940580499E-2</v>
+        <v>2.2928167807976341E-2</v>
       </c>
       <c r="H5" s="3">
         <v>0.125</v>
@@ -600,7 +601,7 @@
         <v>1.7800688190363541</v>
       </c>
       <c r="G6" s="3">
-        <v>0.31300408701214211</v>
+        <v>0.31300292525106821</v>
       </c>
       <c r="H6" s="3">
         <v>0.25</v>
@@ -626,7 +627,7 @@
         <v>7.5550112967139409</v>
       </c>
       <c r="G7" s="3">
-        <v>0.62122047548900994</v>
+        <v>0.62122189561899066</v>
       </c>
       <c r="H7" s="3">
         <v>0.25</v>
@@ -637,20 +638,18 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.1778780509303957E-4</v>
+        <v>5.3410153061506094E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.1091294127544291E-3</v>
+        <v>2.108001151472028E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>6.0820442097941907E-3</v>
+        <v>6.6193941695309464E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.7831637748742209E-3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11.33261425504838</v>
-      </c>
+        <v>1.7241753874635661E-3</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -663,19 +662,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>1.0288491250358689E-3</v>
+        <v>1.0288426372999651E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>4.218401904710456E-3</v>
+        <v>4.2183738841536922E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>2.2225709810200559E-2</v>
+        <v>2.2225658096002739E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.1353894205119411E-2</v>
+        <v>1.1353864459002961E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>8.662131093809359</v>
+        <v>8.6621317326322558</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stock-bond_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond_stats.xlsx
@@ -440,17 +440,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -638,18 +634,20 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3410153061506094E-4</v>
+        <v>5.2710836440406084E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.108001151472028E-3</v>
+        <v>2.101013587392675E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>6.6193941695309464E-3</v>
+        <v>7.1499916719690582E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.7241753874635661E-3</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>1.6725978724691361E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11.70042393143976</v>
+      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
